--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/Exportar/1.2.EESI_motores_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/Exportar/1.2.EESI_motores_exp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD341A1-1CD7-43AA-885D-1EEF5B3F638D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="2085" yWindow="3030" windowWidth="14400" windowHeight="10755" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,22 +29,28 @@
     <definedName name="Lista_meses">Variables!$AA$7:$AA$18</definedName>
     <definedName name="Tabla_mes">Variables!$AA$7:$AB$18</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -88,12 +95,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2000,9 +2007,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
@@ -3130,7 +3137,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -3429,7 +3436,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3636,6 +3643,13 @@
     <xf numFmtId="4" fontId="40" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -3743,20 +3757,13 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 3" xfId="4"/>
+    <cellStyle name="Normal 10 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3789,7 +3796,13 @@
     <xdr:ext cx="3945701" cy="381985"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CuadroTexto 6"/>
+        <xdr:cNvPr id="7" name="CuadroTexto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3888,7 +3901,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CuadroTexto 7"/>
+        <xdr:cNvPr id="8" name="CuadroTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3978,7 +3997,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectángulo 5"/>
+        <xdr:cNvPr id="6" name="Rectángulo 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4043,7 +4068,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Grupo 3"/>
+        <xdr:cNvPr id="4" name="Grupo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4056,7 +4087,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="Imagen 1"/>
+          <xdr:cNvPr id="2" name="Imagen 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4078,7 +4115,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvPr id="3" name="Rectángulo redondeado 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4139,7 +4182,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4707,7 +4756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -4734,24 +4783,24 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="205"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="203"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="205"/>
+      <c r="B5" s="206"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="208"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="206"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="208"/>
+      <c r="B6" s="209"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="211"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -4996,7 +5045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5024,14 +5073,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -5075,14 +5124,14 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="210" t="s">
+      <c r="B9" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="211"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="212"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="215"/>
     </row>
     <row r="10" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
@@ -5154,7 +5203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AB62"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
@@ -5291,10 +5340,10 @@
         <v>5036.5780346820811</v>
       </c>
       <c r="I6" s="94"/>
-      <c r="AA6" s="236" t="s">
+      <c r="AA6" s="200" t="s">
         <v>183</v>
       </c>
-      <c r="AB6" s="237" t="s">
+      <c r="AB6" s="201" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5971,32 +6020,32 @@
       <c r="I32" s="94"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="216" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="214"/>
-      <c r="C34" s="214"/>
-      <c r="D34" s="214"/>
-      <c r="E34" s="214"/>
-      <c r="F34" s="214"/>
-      <c r="G34" s="214"/>
+      <c r="B34" s="217"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="217"/>
+      <c r="F34" s="217"/>
+      <c r="G34" s="217"/>
     </row>
     <row r="35" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="222" t="s">
+      <c r="D36" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="223"/>
-      <c r="F36" s="223"/>
-      <c r="G36" s="223"/>
-      <c r="H36" s="224"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="227"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D37" s="41" t="s">
@@ -6034,37 +6083,37 @@
     </row>
     <row r="39" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="231"/>
-      <c r="C40" s="232"/>
+      <c r="B40" s="234"/>
+      <c r="C40" s="235"/>
       <c r="D40" s="91" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="225" t="s">
+      <c r="B41" s="228" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="226"/>
+      <c r="C41" s="229"/>
       <c r="D41" s="115">
         <f>G3*$D$38+G6*$E$38+G9*$F$38+G12*$G$38+G15*$H$38</f>
         <v>7997.2788862459374</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="227" t="s">
+      <c r="B42" s="230" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="228"/>
+      <c r="C42" s="231"/>
       <c r="D42" s="92">
         <f>G4*$D$38+G7*$E$38+G10*$F$38+G13*$G$38+G16*$H$38</f>
         <v>8194.1635171830039</v>
       </c>
     </row>
     <row r="43" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="229" t="s">
+      <c r="B43" s="232" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="230"/>
+      <c r="C43" s="233"/>
       <c r="D43" s="93">
         <f>G5*$D$38+G8*$E$38+G11*$F$38+G14*$G$38+G17*$H$38</f>
         <v>8444.2043794558067</v>
@@ -6103,21 +6152,21 @@
       <c r="H48" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="J48" s="215" t="s">
+      <c r="J48" s="218" t="s">
         <v>54</v>
       </c>
-      <c r="K48" s="217" t="s">
+      <c r="K48" s="220" t="s">
         <v>85</v>
       </c>
-      <c r="L48" s="218"/>
-      <c r="M48" s="218"/>
-      <c r="N48" s="218"/>
-      <c r="O48" s="219" t="s">
+      <c r="L48" s="221"/>
+      <c r="M48" s="221"/>
+      <c r="N48" s="221"/>
+      <c r="O48" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="P48" s="220"/>
-      <c r="Q48" s="220"/>
-      <c r="R48" s="221"/>
+      <c r="P48" s="223"/>
+      <c r="Q48" s="223"/>
+      <c r="R48" s="224"/>
     </row>
     <row r="49" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="111" t="s">
@@ -6142,7 +6191,7 @@
         <f>F49*G49/E49</f>
         <v>2085714.285714285</v>
       </c>
-      <c r="J49" s="216"/>
+      <c r="J49" s="219"/>
       <c r="K49" s="82" t="s">
         <v>91</v>
       </c>
@@ -6376,24 +6425,24 @@
       <c r="H60" s="52"/>
     </row>
     <row r="61" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="213" t="s">
+      <c r="B61" s="216" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="213"/>
-      <c r="D61" s="213"/>
-      <c r="E61" s="213"/>
-      <c r="F61" s="213"/>
-      <c r="G61" s="213"/>
-      <c r="H61" s="213"/>
+      <c r="C61" s="216"/>
+      <c r="D61" s="216"/>
+      <c r="E61" s="216"/>
+      <c r="F61" s="216"/>
+      <c r="G61" s="216"/>
+      <c r="H61" s="216"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="214"/>
-      <c r="C62" s="214"/>
-      <c r="D62" s="214"/>
-      <c r="E62" s="214"/>
-      <c r="F62" s="214"/>
-      <c r="G62" s="214"/>
-      <c r="H62" s="214"/>
+      <c r="B62" s="217"/>
+      <c r="C62" s="217"/>
+      <c r="D62" s="217"/>
+      <c r="E62" s="217"/>
+      <c r="F62" s="217"/>
+      <c r="G62" s="217"/>
+      <c r="H62" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6416,7 +6465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6566,11 +6615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:S42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:I33"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6957,11 +7006,11 @@
       <c r="Q24" s="99"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O25" s="233" t="s">
+      <c r="O25" s="236" t="s">
         <v>170</v>
       </c>
-      <c r="P25" s="233"/>
-      <c r="Q25" s="233"/>
+      <c r="P25" s="236"/>
+      <c r="Q25" s="236"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
@@ -6970,9 +7019,9 @@
       <c r="F26" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="O26" s="234"/>
-      <c r="P26" s="234"/>
-      <c r="Q26" s="234"/>
+      <c r="O26" s="237"/>
+      <c r="P26" s="237"/>
+      <c r="Q26" s="237"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
@@ -6999,9 +7048,9 @@
       <c r="J27" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="O27" s="234"/>
-      <c r="P27" s="234"/>
-      <c r="Q27" s="234"/>
+      <c r="O27" s="237"/>
+      <c r="P27" s="237"/>
+      <c r="Q27" s="237"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="102" t="s">
@@ -7269,15 +7318,15 @@
     <mergeCell ref="O25:Q27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf"/>
-    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf"/>
-    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf"/>
-    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf"/>
-    <hyperlink ref="B42" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B42" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -7286,11 +7335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7344,7 +7393,7 @@
       <c r="F4" s="184"/>
       <c r="G4" s="184"/>
       <c r="H4" s="186"/>
-      <c r="I4" s="235" t="s">
+      <c r="I4" s="238" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7364,11 +7413,11 @@
       <c r="F5" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="238"/>
+      <c r="G5" s="202"/>
       <c r="H5" s="189" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="235"/>
+      <c r="I5" s="238"/>
     </row>
     <row r="6" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
@@ -7396,7 +7445,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="190">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C7" s="191">
         <v>200</v>
@@ -7424,7 +7473,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="190">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C8" s="191">
         <v>500</v>
@@ -7467,7 +7516,7 @@
     <mergeCell ref="I4:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Lista_meses</formula1>
     </dataValidation>
   </dataValidations>
@@ -7475,13 +7524,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
           <x14:formula1>
             <xm:f>Desplegable!$D$3:$P$3</xm:f>
           </x14:formula1>
           <xm:sqref>C7:C8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
           <x14:formula1>
             <xm:f>Variables!$B$3:$B$5</xm:f>
           </x14:formula1>
